--- a/downloaded_files/EECS102_Lecture-35884.xlsx
+++ b/downloaded_files/EECS102_Lecture-35884.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,15 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد بركات صابر الطيب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ahmed barakat saber eltyeb</x:t>
   </x:si>
   <x:si>
     <x:t>1240004</x:t>
@@ -503,7 +512,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -803,7 +812,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T41"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -894,7 +903,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45914.658578125</x:v>
+        <x:v>45921.9377711806</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -926,7 +935,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45914.6342202546</x:v>
+        <x:v>45914.658578125</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -958,7 +967,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45914.6651950579</x:v>
+        <x:v>45914.6342202546</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -990,7 +999,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45914.6598865394</x:v>
+        <x:v>45914.6651950579</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1022,7 +1031,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45914.6583652431</x:v>
+        <x:v>45914.6598865394</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1054,7 +1063,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45914.6094861111</x:v>
+        <x:v>45914.6583652431</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1086,7 +1095,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45914.6601823727</x:v>
+        <x:v>45914.6094861111</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1118,7 +1127,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.6636288194</x:v>
+        <x:v>45914.6601823727</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1150,7 +1159,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.6630536227</x:v>
+        <x:v>45914.6636288194</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1182,7 +1191,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.6116493866</x:v>
+        <x:v>45914.6630536227</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1214,7 +1223,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.6632867708</x:v>
+        <x:v>45914.6116493866</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1246,7 +1255,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.5878229977</x:v>
+        <x:v>45914.6632867708</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1278,7 +1287,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.658140625</x:v>
+        <x:v>45914.5878229977</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1310,7 +1319,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.6118933218</x:v>
+        <x:v>45914.658140625</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1342,7 +1351,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.6623571759</x:v>
+        <x:v>45914.6118933218</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1374,7 +1383,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.6113797454</x:v>
+        <x:v>45914.6623571759</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1406,7 +1415,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.6653439468</x:v>
+        <x:v>45914.6113797454</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1438,7 +1447,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.6668022338</x:v>
+        <x:v>45914.6653439468</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1470,7 +1479,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.6649729977</x:v>
+        <x:v>45914.6668022338</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1502,7 +1511,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.660355787</x:v>
+        <x:v>45914.6649729977</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1534,7 +1543,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.6311620718</x:v>
+        <x:v>45914.660355787</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1566,7 +1575,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.5931095255</x:v>
+        <x:v>45914.6311620718</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1598,7 +1607,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.6576509259</x:v>
+        <x:v>45914.5931095255</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1630,7 +1639,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.6092172801</x:v>
+        <x:v>45914.6576509259</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1662,7 +1671,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.6107353009</x:v>
+        <x:v>45914.6092172801</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1694,7 +1703,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.6646792014</x:v>
+        <x:v>45914.6107353009</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1726,7 +1735,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.6578888889</x:v>
+        <x:v>45914.6646792014</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1758,7 +1767,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45914.5925461806</x:v>
+        <x:v>45914.6578888889</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1790,7 +1799,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.6648990741</x:v>
+        <x:v>45914.5925461806</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1822,7 +1831,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45914.5954520023</x:v>
+        <x:v>45914.6648990741</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1854,7 +1863,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45914.6650917477</x:v>
+        <x:v>45914.5954520023</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1886,7 +1895,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45914.639375544</x:v>
+        <x:v>45914.6650917477</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1918,7 +1927,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45914.6573489236</x:v>
+        <x:v>45914.639375544</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1950,7 +1959,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45914.6298201736</x:v>
+        <x:v>45914.6573489236</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1982,7 +1991,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.6088936343</x:v>
+        <x:v>45914.6298201736</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2014,7 +2023,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45914.6660854167</x:v>
+        <x:v>45914.6088936343</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2046,7 +2055,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45914.6110670949</x:v>
+        <x:v>45914.6660854167</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2078,7 +2087,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45914.6596047454</x:v>
+        <x:v>45914.6110670949</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2110,7 +2119,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45914.6121292014</x:v>
+        <x:v>45914.6596047454</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2138,9 +2147,11 @@
       <x:c r="C41" s="2" t="s">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="D41" s="2" t="s"/>
+      <x:c r="D41" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
       <x:c r="E41" s="3">
-        <x:v>45914.6318809375</x:v>
+        <x:v>45914.6121292014</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2157,6 +2168,36 @@
       <x:c r="R41" s="2" t="s"/>
       <x:c r="S41" s="2" t="s"/>
       <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s"/>
+      <x:c r="E42" s="3">
+        <x:v>45914.6318809375</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Lecture-35884.xlsx
+++ b/downloaded_files/EECS102_Lecture-35884.xlsx
@@ -78,6 +78,15 @@
     <x:t>Ahmed Yasser Ramadan Ibrahim</x:t>
   </x:si>
   <x:si>
+    <x:t>1240210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>امينه امجد رخا احمد حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amina Amgad Rakha Ahmed Hassan</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240039</x:t>
   </x:si>
   <x:si>
@@ -184,15 +193,6 @@
   </x:si>
   <x:si>
     <x:t>Adel Ebrahim Hussein Shoaib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240230</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الرحمن ثامر محمد الذهبي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman thamer mohamed elzahaby</x:t>
   </x:si>
   <x:si>
     <x:t>1240081</x:t>
@@ -1063,7 +1063,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45914.6583652431</x:v>
+        <x:v>45907.665140625</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1095,7 +1095,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45914.6094861111</x:v>
+        <x:v>45914.6583652431</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1127,7 +1127,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.6601823727</x:v>
+        <x:v>45914.6094861111</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1159,7 +1159,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.6636288194</x:v>
+        <x:v>45914.6601823727</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1191,7 +1191,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.6630536227</x:v>
+        <x:v>45914.6636288194</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1223,7 +1223,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.6116493866</x:v>
+        <x:v>45914.6630536227</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1255,7 +1255,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.6632867708</x:v>
+        <x:v>45914.6116493866</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1287,7 +1287,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.5878229977</x:v>
+        <x:v>45914.6632867708</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1319,7 +1319,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.658140625</x:v>
+        <x:v>45914.5878229977</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1351,7 +1351,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.6118933218</x:v>
+        <x:v>45914.658140625</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1383,7 +1383,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.6623571759</x:v>
+        <x:v>45914.6118933218</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1415,7 +1415,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.6113797454</x:v>
+        <x:v>45914.6623571759</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1447,7 +1447,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.6653439468</x:v>
+        <x:v>45914.6113797454</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>

--- a/downloaded_files/EECS102_Lecture-35884.xlsx
+++ b/downloaded_files/EECS102_Lecture-35884.xlsx
@@ -96,15 +96,6 @@
     <x:t>Bilal Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1240040</x:t>
-  </x:si>
-  <x:si>
-    <x:t>بيتر اشعياء شحاته فهمي يونان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Peter Asheiaa Shehata Fahmi Younan</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240297</x:t>
   </x:si>
   <x:si>
@@ -391,6 +382,15 @@
   </x:si>
   <x:si>
     <x:t>Nour Mohamed Abdelhamed Abdelrahman Alroba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف احمد السيد احمد الشلقاني</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef ahmed elsayed ahmed metwaley</x:t>
   </x:si>
   <x:si>
     <x:t>4240060</x:t>
@@ -967,7 +967,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45914.6342202546</x:v>
+        <x:v>45927.5045601852</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1127,7 +1127,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.6094861111</x:v>
+        <x:v>45914.6601823727</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1159,7 +1159,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.6601823727</x:v>
+        <x:v>45914.6636288194</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1191,7 +1191,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.6636288194</x:v>
+        <x:v>45914.6630536227</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1223,7 +1223,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.6630536227</x:v>
+        <x:v>45914.6116493866</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1255,7 +1255,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.6116493866</x:v>
+        <x:v>45914.6632867708</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1287,7 +1287,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.6632867708</x:v>
+        <x:v>45914.5878229977</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1319,7 +1319,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.5878229977</x:v>
+        <x:v>45914.658140625</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1351,7 +1351,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.658140625</x:v>
+        <x:v>45914.6118933218</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1383,7 +1383,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.6118933218</x:v>
+        <x:v>45914.6623571759</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1415,7 +1415,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.6623571759</x:v>
+        <x:v>45914.6113797454</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1447,7 +1447,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.6113797454</x:v>
+        <x:v>45914.6668022338</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1479,7 +1479,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.6668022338</x:v>
+        <x:v>45914.6649729977</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1511,7 +1511,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.6649729977</x:v>
+        <x:v>45914.660355787</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1543,7 +1543,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.660355787</x:v>
+        <x:v>45927.4723841782</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1575,7 +1575,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.6311620718</x:v>
+        <x:v>45914.5931095255</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1607,7 +1607,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.5931095255</x:v>
+        <x:v>45914.6576509259</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1639,7 +1639,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.6576509259</x:v>
+        <x:v>45914.6092172801</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1671,7 +1671,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.6092172801</x:v>
+        <x:v>45914.6107353009</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1703,7 +1703,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.6107353009</x:v>
+        <x:v>45914.6646792014</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1735,7 +1735,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.6646792014</x:v>
+        <x:v>45914.6578888889</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1767,7 +1767,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45914.6578888889</x:v>
+        <x:v>45914.5925461806</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1799,7 +1799,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.5925461806</x:v>
+        <x:v>45914.6648990741</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1831,7 +1831,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45914.6648990741</x:v>
+        <x:v>45914.5954520023</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1863,7 +1863,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45914.5954520023</x:v>
+        <x:v>45914.6650917477</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1895,7 +1895,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45914.6650917477</x:v>
+        <x:v>45914.639375544</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1927,7 +1927,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45914.639375544</x:v>
+        <x:v>45914.6573489236</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1959,7 +1959,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45914.6573489236</x:v>
+        <x:v>45914.6298201736</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1991,7 +1991,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.6298201736</x:v>
+        <x:v>45914.6088936343</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2023,7 +2023,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45914.6088936343</x:v>
+        <x:v>45914.6660854167</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2055,7 +2055,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45914.6660854167</x:v>
+        <x:v>45914.6110670949</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2087,7 +2087,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45914.6110670949</x:v>
+        <x:v>45914.6596047454</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2119,7 +2119,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45914.6596047454</x:v>
+        <x:v>45914.6121292014</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2151,7 +2151,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45914.6121292014</x:v>
+        <x:v>45927.5052487269</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>

--- a/downloaded_files/EECS102_Lecture-35884.xlsx
+++ b/downloaded_files/EECS102_Lecture-35884.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -310,6 +310,15 @@
   </x:si>
   <x:si>
     <x:t>mohamed khaled abd el azeez mohamedd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد سعد السيد محمد دبور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Saad El-Sayed Mohamed Dabour</x:t>
   </x:si>
   <x:si>
     <x:t>1240150</x:t>
@@ -512,7 +521,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -812,7 +821,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1895,7 +1904,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45914.639375544</x:v>
+        <x:v>45929.9981445949</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1927,7 +1936,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45914.6573489236</x:v>
+        <x:v>45914.639375544</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1959,7 +1968,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45914.6298201736</x:v>
+        <x:v>45914.6573489236</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1991,7 +2000,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.6088936343</x:v>
+        <x:v>45914.6298201736</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2023,7 +2032,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45914.6660854167</x:v>
+        <x:v>45914.6088936343</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2055,7 +2064,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45914.6110670949</x:v>
+        <x:v>45914.6660854167</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2087,7 +2096,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45914.6596047454</x:v>
+        <x:v>45914.6110670949</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2119,7 +2128,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45914.6121292014</x:v>
+        <x:v>45914.6596047454</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2151,7 +2160,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45927.5052487269</x:v>
+        <x:v>45914.6121292014</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2179,9 +2188,11 @@
       <x:c r="C42" s="2" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="D42" s="2" t="s"/>
+      <x:c r="D42" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
       <x:c r="E42" s="3">
-        <x:v>45914.6318809375</x:v>
+        <x:v>45927.5052487269</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2198,6 +2209,36 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s"/>
+      <x:c r="E43" s="3">
+        <x:v>45914.6318809375</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Lecture-35884.xlsx
+++ b/downloaded_files/EECS102_Lecture-35884.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -310,15 +310,6 @@
   </x:si>
   <x:si>
     <x:t>mohamed khaled abd el azeez mohamedd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250193</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد سعد السيد محمد دبور</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Saad El-Sayed Mohamed Dabour</x:t>
   </x:si>
   <x:si>
     <x:t>1240150</x:t>
@@ -521,7 +512,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -821,7 +812,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T43"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1904,7 +1895,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45929.9981445949</x:v>
+        <x:v>45914.639375544</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1936,7 +1927,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45914.639375544</x:v>
+        <x:v>45914.6573489236</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1968,7 +1959,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45914.6573489236</x:v>
+        <x:v>45914.6298201736</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2000,7 +1991,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.6298201736</x:v>
+        <x:v>45914.6088936343</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2032,7 +2023,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45914.6088936343</x:v>
+        <x:v>45914.6660854167</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2064,7 +2055,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45914.6660854167</x:v>
+        <x:v>45914.6110670949</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2096,7 +2087,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45914.6110670949</x:v>
+        <x:v>45914.6596047454</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2128,7 +2119,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45914.6596047454</x:v>
+        <x:v>45914.6121292014</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2160,7 +2151,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45914.6121292014</x:v>
+        <x:v>45927.5052487269</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2188,11 +2179,9 @@
       <x:c r="C42" s="2" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>127</x:v>
-      </x:c>
+      <x:c r="D42" s="2" t="s"/>
       <x:c r="E42" s="3">
-        <x:v>45927.5052487269</x:v>
+        <x:v>45914.6318809375</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2209,36 +2198,6 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
-    </x:row>
-    <x:row r="43" spans="1:20">
-      <x:c r="A43" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B43" s="2" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="C43" s="2" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="D43" s="2" t="s"/>
-      <x:c r="E43" s="3">
-        <x:v>45914.6318809375</x:v>
-      </x:c>
-      <x:c r="F43" s="2" t="s"/>
-      <x:c r="G43" s="2" t="s"/>
-      <x:c r="H43" s="2" t="s"/>
-      <x:c r="I43" s="2" t="s"/>
-      <x:c r="J43" s="2" t="s"/>
-      <x:c r="K43" s="2" t="s"/>
-      <x:c r="L43" s="2" t="s"/>
-      <x:c r="M43" s="2" t="s"/>
-      <x:c r="N43" s="2" t="s"/>
-      <x:c r="O43" s="2" t="s"/>
-      <x:c r="P43" s="2" t="s"/>
-      <x:c r="Q43" s="2" t="s"/>
-      <x:c r="R43" s="2" t="s"/>
-      <x:c r="S43" s="2" t="s"/>
-      <x:c r="T43" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
